--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_12.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_12.xlsx
@@ -88,7 +88,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ahh! That special appearance means… that Reunion member is extremely dangerous!
+    <t xml:space="preserve">Ahh! That special appearance means... that Reunion member is extremely dangerous!
 </t>
   </si>
   <si>
@@ -96,7 +96,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Doctor, this is a test for your commanding capabilities. &lt;@tu.kw&gt;Spread out our Operators&lt;/&gt; to minimize the enemy’s damage.
+    <t xml:space="preserve">Doctor, this is a test for your commanding capabilities. &lt;@tu.kw&gt;Spread out our Operators&lt;/&gt; to minimize the enemy's damage.
 </t>
   </si>
   <si>
@@ -104,7 +104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] You must not push yourself too hard, Jessica. Your ammunition needs to be finely processed from Originium, and it’s hard for us to come by.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] You must not push yourself too hard, Jessica. Your ammunition needs to be finely processed from Originium, and it's hard for us to come by.
 </t>
   </si>
   <si>
